--- a/umbrella360/deposito/unidades_São Francisco Resgate.xlsx
+++ b/umbrella360/deposito/unidades_São Francisco Resgate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,37 +451,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>engine_model</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>engine_power</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>engine_displacement</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>primary_fuel_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>engine_model</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>engine_power</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>engine_displacement</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>primary_fuel_type</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -516,49 +516,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fiat 1.0</t>
+          <t>71cv</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>999cm³</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>Flex</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -577,58 +557,54 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>401941806</v>
+        <v>401990799</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SFRESGATE_9673</t>
+          <t>SFRESGATE_6097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -638,58 +614,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fiat 1.0</t>
+          <t>71cv</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>999cm³</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>Flex</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>401916024</v>
+        <v>401990804</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SFRESGATE_BPQ3E25</t>
+          <t>SFRESGATE_6907</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -699,58 +655,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fiat 1.0</t>
+          <t>71cv</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>999cm³</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t>Flex</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>BPQ3E25</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>401915533</v>
+        <v>401941806</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SFRESGATE_DRI8I74</t>
+          <t>SFRESGATE_9673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -760,87 +696,115 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>DRI8I74</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>401906339</v>
+        <v>401916024</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SFRESGATE_DRQ5I21</t>
+          <t>SFRESGATE_BPQ3E25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DRQ5I21</t>
+          <t>BPQ3E25</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>401941781</v>
+        <v>401915533</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SFRESGATE_EWN7294</t>
+          <t>SFRESGATE_DRI8I74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,39 +814,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>2023</t>
@@ -890,18 +854,18 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>DRI8I74</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>401880997</v>
+        <v>401906339</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SFRESGATE_SIV2J35</t>
+          <t>SFRESGATE_DRQ5I21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -917,102 +881,102 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DRQ5I21</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>401879378</v>
+        <v>401941781</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G54</t>
+          <t>SFRESGATE_EWN7294</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>401916817</v>
+        <v>401880997</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G63</t>
+          <t>SFRESGATE_SIV2J35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>SJI6G63</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>401879179</v>
+        <v>401879378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G64</t>
+          <t>SFRESGATE_SJI6G54</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1033,36 +997,72 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>401889700</v>
+        <v>401916817</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G68</t>
+          <t>SFRESGATE_SJI6G63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SJI6G63</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>401880902</v>
+        <v>401879179</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G72</t>
+          <t>SFRESGATE_SJI6G64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1083,137 +1083,61 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>401889343</v>
+        <v>401889700</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G74</t>
+          <t>SFRESGATE_SJI6G68</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>SYF6G05</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>401927850</v>
+        <v>401880902</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G75</t>
+          <t>SFRESGATE_SJI6G72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>401928009</v>
+        <v>401889343</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G77</t>
+          <t>SFRESGATE_SJI6G74</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1223,39 +1147,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1263,22 +1187,18 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>SJI6G74</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>401916826</v>
+        <v>401927850</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G78</t>
+          <t>SFRESGATE_SJI6G75</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1288,54 +1208,62 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SJI6G75</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>401927802</v>
+        <v>401928009</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G79</t>
+          <t>SFRESGATE_SJI6G77</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1345,39 +1273,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1385,7 +1313,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G77</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1396,11 +1324,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>401879415</v>
+        <v>401916826</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G82</t>
+          <t>SFRESGATE_SJI6G78</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1410,62 +1338,54 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>401928011</v>
+        <v>401927802</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G85</t>
+          <t>SFRESGATE_SJI6G79</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1475,39 +1395,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1515,7 +1435,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G79</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1526,11 +1446,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>401915520</v>
+        <v>401879415</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G86</t>
+          <t>SFRESGATE_SJI6G82</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1540,39 +1460,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1580,18 +1500,22 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>SJI6G82</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>401927726</v>
+        <v>401928011</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G88</t>
+          <t>SFRESGATE_SJI6G85</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1601,39 +1525,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1641,7 +1565,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G85</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1652,40 +1576,72 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>401881369</v>
+        <v>401915520</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G89</t>
+          <t>SFRESGATE_SJI6G86</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>SJI6G89</t>
+          <t>SJI6G86</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>401915486</v>
+        <v>401927726</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G90</t>
+          <t>SFRESGATE_SJI6G88</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1695,39 +1651,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1735,137 +1691,169 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>SJI6G88</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>401929767</v>
+        <v>401881369</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G91</t>
+          <t>SFRESGATE_SJI6G89</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>SJI6G89</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>401906383</v>
+        <v>401915486</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G92</t>
+          <t>SFRESGATE_SJI6G90</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>401881418</v>
+        <v>401929767</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G96</t>
+          <t>SFRESGATE_SJI6G91</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>SJI6G96</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>401916092</v>
+        <v>401906383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G97</t>
+          <t>SFRESGATE_SJI6G92</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1881,20 +1869,16 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>SJI6G97</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>401897329</v>
+        <v>401881418</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SFRESGATE_SJI6G99</t>
+          <t>SFRESGATE_SJI6G96</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1912,18 +1896,18 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>SJI6G99</t>
+          <t>SJI6G96</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>401907057</v>
+        <v>401916092</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E00</t>
+          <t>SFRESGATE_SJI6G97</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1941,79 +1925,47 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>SYB8E00</t>
+          <t>SJI6G97</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>401916068</v>
+        <v>401897329</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E10</t>
+          <t>SFRESGATE_SJI6G99</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SJI6G99</t>
         </is>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>401879325</v>
+        <v>401907057</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E11</t>
+          <t>SFRESGATE_SYB8E00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2029,106 +1981,102 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>SYB8E00</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>401907137</v>
+        <v>401916068</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E23</t>
+          <t>SFRESGATE_SYB8E10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>SYB8E23</t>
-        </is>
-      </c>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>401946422</v>
+        <v>401879325</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E28</t>
+          <t>SFRESGATE_SYB8E11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>401906350</v>
+        <v>401907137</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E24</t>
+          <t>SFRESGATE_SYB8E23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2146,18 +2094,18 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>SYB8E24</t>
+          <t>SYB8E23</t>
         </is>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>401941723</v>
+        <v>401946422</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYB8E25</t>
+          <t>SFRESGATE_SYB8E28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2167,136 +2115,214 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>Fiat 1.0</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Cronos</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>SJI6G86</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>401915500</v>
+        <v>401906350</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYF6G05</t>
+          <t>SFRESGATE_SYB8E24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>passenger_car</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Fiat 1.0</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Cronos</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>71cv</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>52,2</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>999cm³</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Flex</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>SJI6G86</t>
+          <t>SYB8E24</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>401880666</v>
+        <v>401941723</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SFRESGATE_SYZ2F17</t>
+          <t>SFRESGATE_SYB8E25</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>empty_vehicle</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>401915500</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SFRESGATE_SYF6G05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>passenger_car</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>71cv</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>999cm³</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Fiat 1.0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Cronos</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>401880666</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SFRESGATE_SYZ2F17</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>empty_vehicle</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
